--- a/result/timestamp dependency (TP)/slither.xlsx
+++ b/result/timestamp dependency (TP)/slither.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C260"/>
+  <dimension ref="A1:C373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,11 +465,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IcoRocketFuel</t>
+          <t>DisbursementHandler</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -478,11 +478,11 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Duang8</t>
+          <t>TTPresale</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -491,11 +491,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HorseyPilot</t>
+          <t>IcoRocketFuel</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -504,11 +504,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>braggerContract</t>
+          <t>Duang8</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -517,11 +517,11 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CrowdsaleExt</t>
+          <t>HorseyPilot</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -530,11 +530,11 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CrowdsaleExt</t>
+          <t>braggerContract</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -543,11 +543,11 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CrowdsaleWPTByRounds</t>
+          <t>CrowdsaleExt</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -556,11 +556,11 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FreezableToken</t>
+          <t>CrowdsaleExt</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -569,11 +569,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Saturn</t>
+          <t>CrowdsaleWPTByRounds</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -582,11 +582,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>419</v>
+        <v>361</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SnooKarma</t>
+          <t>FreezableToken</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -595,11 +595,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>F3DPLUS</t>
+          <t>Saturn</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -608,11 +608,11 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>496</v>
+        <v>419</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TokenSale</t>
+          <t>SnooKarma</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -621,11 +621,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>518</v>
+        <v>428</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SCardLong</t>
+          <t>F3DPLUS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -634,11 +634,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>578</v>
+        <v>496</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ERC20Like</t>
+          <t>TokenSale</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -647,11 +647,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>613</v>
+        <v>518</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SnooKarma</t>
+          <t>SCardLong</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -660,11 +660,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>649</v>
+        <v>578</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DVPlock</t>
+          <t>ERC20Like</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -673,11 +673,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>665</v>
+        <v>613</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TwoYearDreamTokensVesting</t>
+          <t>SnooKarma</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -686,11 +686,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>738</v>
+        <v>649</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Token</t>
+          <t>DVPlock</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -699,11 +699,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1051</v>
+        <v>665</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LimitCollectCoin</t>
+          <t>TwoYearDreamTokensVesting</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -712,11 +712,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1182</v>
+        <v>738</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BitSongCrowdsale</t>
+          <t>Token</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -725,11 +725,11 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1318</v>
+        <v>739</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WorkIt</t>
+          <t>Crowdsale</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -738,11 +738,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1667</v>
+        <v>883</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>JobsBounty</t>
+          <t>RakuRakuEth</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -751,11 +751,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1671</v>
+        <v>1051</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TokenSale</t>
+          <t>LimitCollectCoin</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -764,11 +764,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1704</v>
+        <v>1182</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WinnerWinner</t>
+          <t>BitSongCrowdsale</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -777,11 +777,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1704</v>
+        <v>1256</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ExternalView</t>
+          <t>Betting</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -790,11 +790,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1826</v>
+        <v>1318</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>JobsBounty</t>
+          <t>WorkIt</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -803,11 +803,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2293</v>
+        <v>1667</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TokenBucket</t>
+          <t>JobsBounty</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -816,11 +816,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2389</v>
+        <v>1671</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ERC20Like</t>
+          <t>TokenSale</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -829,11 +829,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2391</v>
+        <v>1704</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FsTKColdWallet</t>
+          <t>ExternalView</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -842,11 +842,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2598</v>
+        <v>1704</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FoMo3Dshort</t>
+          <t>WinnerWinner</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -855,11 +855,11 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2599</v>
+        <v>1826</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SnowStorm</t>
+          <t>JobsBounty</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -868,11 +868,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2622</v>
+        <v>2293</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NewChance</t>
+          <t>TokenBucket</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -881,11 +881,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2641</v>
+        <v>2389</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CrowdsaleExt</t>
+          <t>ERC20Like</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -894,11 +894,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2655</v>
+        <v>2391</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FOMO3TEST1</t>
+          <t>FsTKColdWallet</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -907,11 +907,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2684</v>
+        <v>2598</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FoMo3Dlong</t>
+          <t>FoMo3Dshort</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -920,11 +920,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2688</v>
+        <v>2599</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>F3d</t>
+          <t>SnowStorm</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -933,11 +933,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2699</v>
+        <v>2622</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PoHMO4D</t>
+          <t>NewChance</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -946,11 +946,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2716</v>
+        <v>2641</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Scale</t>
+          <t>CrowdsaleExt</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -959,11 +959,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2717</v>
+        <v>2646</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FoMo3Dlong</t>
+          <t>CrowdsaleExt</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -972,11 +972,11 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2723</v>
+        <v>2646</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LastUnicorn</t>
+          <t>MintedTokenCappedCrowdsaleExt</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -985,11 +985,11 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2736</v>
+        <v>2655</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>FOMO3TEST1</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -998,11 +998,11 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2736</v>
+        <v>2684</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TimedStateMachine</t>
+          <t>FoMo3Dlong</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1011,11 +1011,11 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2736</v>
+        <v>2688</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DisbursementHandler</t>
+          <t>F3d</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1024,11 +1024,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2736</v>
+        <v>2699</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Vault</t>
+          <t>PoHMO4D</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1037,11 +1037,11 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2745</v>
+        <v>2711</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FoMoRapid</t>
+          <t>ExhibationLinkingCoin</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1050,11 +1050,11 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2750</v>
+        <v>2716</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>RatScam</t>
+          <t>Scale</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1063,11 +1063,11 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2754</v>
+        <v>2717</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>FoMo3Dlong</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1076,11 +1076,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2761</v>
+        <v>2723</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EthKillerLong</t>
+          <t>LastUnicorn</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1089,11 +1089,11 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2772</v>
+        <v>2736</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Random</t>
+          <t>TimedStateMachine</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1102,11 +1102,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2777</v>
+        <v>2736</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FoMo3DWorld</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1115,11 +1115,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2797</v>
+        <v>2736</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TimedCrowdsale</t>
+          <t>DisbursementHandler</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1128,11 +1128,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2814</v>
+        <v>2736</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TokenSale</t>
+          <t>Vault</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1141,11 +1141,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2839</v>
+        <v>2745</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ReadyPlayerONE</t>
+          <t>FoMoRapid</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1154,11 +1154,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2861</v>
+        <v>2750</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TokenVesting</t>
+          <t>RatScam</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1167,11 +1167,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2948</v>
+        <v>2754</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BGAudit</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1180,11 +1180,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3050</v>
+        <v>2755</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PonziPwn</t>
+          <t>BasicFundraiser</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1193,11 +1193,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3100</v>
+        <v>2755</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CardsRaffle</t>
+          <t>CappedFundraiser</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1206,11 +1206,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3125</v>
+        <v>2755</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NekoToken</t>
+          <t>TokenSafe</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1219,11 +1219,11 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3185</v>
+        <v>2761</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>StarmidFreezeTokens</t>
+          <t>EthKillerLong</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1232,11 +1232,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3199</v>
+        <v>2772</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>LOLlong</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1245,11 +1245,11 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3233</v>
+        <v>2777</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NokuFlatPlan</t>
+          <t>FoMo3DWorld</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1258,11 +1258,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3240</v>
+        <v>2797</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TokenVesting</t>
+          <t>TimedCrowdsale</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1271,11 +1271,11 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3240</v>
+        <v>2814</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TokenTimelock</t>
+          <t>TokenSale</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1284,11 +1284,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3271</v>
+        <v>2839</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>hodlEthereum</t>
+          <t>ReadyPlayerONE</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1297,11 +1297,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6059</v>
+        <v>2861</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TimedCrowdsale</t>
+          <t>TokenVesting</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1310,11 +1310,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6065</v>
+        <v>2948</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TokenVesting</t>
+          <t>BGAudit</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1323,11 +1323,11 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6065</v>
+        <v>3050</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TokenTimelock</t>
+          <t>PonziPwn</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1336,11 +1336,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6149</v>
+        <v>3100</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>JadeCoin</t>
+          <t>CardsRaffle</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1349,11 +1349,11 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6220</v>
+        <v>3125</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MINEA</t>
+          <t>NekoToken</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1362,11 +1362,11 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6251</v>
+        <v>3185</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>EtherCity</t>
+          <t>StarmidFreezeTokens</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1375,11 +1375,11 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6251</v>
+        <v>3199</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>EtherCityData</t>
+          <t>LOLlong</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1388,11 +1388,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6253</v>
+        <v>3233</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>EtherCity</t>
+          <t>NokuFlatPlan</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1401,11 +1401,11 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6253</v>
+        <v>3240</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>EtherCityData</t>
+          <t>TokenVesting</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1414,11 +1414,11 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6255</v>
+        <v>3240</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>EtherCityData</t>
+          <t>TokenTimelock</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1427,11 +1427,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>6255</v>
+        <v>3271</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>EtherCity</t>
+          <t>hodlEthereum</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1440,11 +1440,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>6257</v>
+        <v>6053</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>EtherCityData</t>
+          <t>TimedCrowdsale</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1453,11 +1453,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>6257</v>
+        <v>6059</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>EtherCity</t>
+          <t>TimedCrowdsale</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1466,11 +1466,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>6272</v>
+        <v>6065</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>JadeCoin</t>
+          <t>TokenTimelock</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1479,11 +1479,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>6297</v>
+        <v>6065</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TimedCrowdsale</t>
+          <t>TokenVesting</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1492,11 +1492,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>6297</v>
+        <v>6149</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JcnxxxCrowdsale</t>
+          <t>JadeCoin</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1505,11 +1505,11 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>6322</v>
+        <v>6220</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TokenTimelock</t>
+          <t>MINEA</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -1518,11 +1518,11 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>6348</v>
+        <v>6251</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DutchAuction</t>
+          <t>EtherCityData</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -1531,11 +1531,11 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>6369</v>
+        <v>6251</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>LemoCoin</t>
+          <t>EtherCity</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1544,11 +1544,11 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>6370</v>
+        <v>6253</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AMTTimelockedToken</t>
+          <t>EtherCityData</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -1557,11 +1557,11 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>6396</v>
+        <v>6253</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SparksterToken</t>
+          <t>EtherCity</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -1570,11 +1570,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6403</v>
+        <v>6255</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CrowdsaleExt</t>
+          <t>EtherCityData</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -1583,11 +1583,11 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>6472</v>
+        <v>6255</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SparksterToken</t>
+          <t>EtherCity</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -1596,11 +1596,11 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>6534</v>
+        <v>6257</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>XTVToken</t>
+          <t>EtherCityData</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1609,11 +1609,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6578</v>
+        <v>6257</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CryptualProjectToken</t>
+          <t>EtherCity</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -1622,11 +1622,11 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>6586</v>
+        <v>6272</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TokenTimelockController</t>
+          <t>JadeCoin</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -1635,11 +1635,11 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>6592</v>
+        <v>6297</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SparksterToken</t>
+          <t>JcnxxxCrowdsale</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -1648,11 +1648,11 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>6596</v>
+        <v>6297</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FreezableToken</t>
+          <t>TimedCrowdsale</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1661,11 +1661,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>6604</v>
+        <v>6322</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TimedCrowdsale</t>
+          <t>TokenTimelock</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -1674,11 +1674,11 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>6604</v>
+        <v>6348</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>VreoTokenSale</t>
+          <t>DutchAuction</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -1687,11 +1687,11 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>6663</v>
+        <v>6369</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TokenTimelockController</t>
+          <t>LemoCoin</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -1700,11 +1700,11 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>6811</v>
+        <v>6370</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>XTVToken</t>
+          <t>AMTTimelockedToken</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -1713,11 +1713,11 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>6822</v>
+        <v>6396</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Lockable</t>
+          <t>SparksterToken</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -1726,11 +1726,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>6822</v>
+        <v>6403</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>BugXToken</t>
+          <t>CrowdsaleExt</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -1739,11 +1739,11 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>6833</v>
+        <v>6404</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MOEToken</t>
+          <t>MintedTokenCappedCrowdsaleExt</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -1752,11 +1752,11 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>6844</v>
+        <v>6404</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>XTVToken</t>
+          <t>CrowdsaleExt</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -1765,11 +1765,11 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>6846</v>
+        <v>6454</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FoMo3Dlong</t>
+          <t>Competition</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -1778,11 +1778,11 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>6915</v>
+        <v>6454</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TimedCrowdsale</t>
+          <t>Fund</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -1791,11 +1791,11 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>6915</v>
+        <v>6454</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>GrapevineCrowdsale</t>
+          <t>SimplePriceFeed</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -1804,11 +1804,11 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>6929</v>
+        <v>6454</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PitEur</t>
+          <t>OperatorStaking</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -1817,11 +1817,11 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>7044</v>
+        <v>6454</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>IonChainICO</t>
+          <t>CanonicalPriceFeed</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -1830,11 +1830,11 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>7044</v>
+        <v>6454</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>BaseICO</t>
+          <t>DSGroup</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -1843,11 +1843,11 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>7046</v>
+        <v>6472</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Crowdsale</t>
+          <t>SparksterToken</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -1856,11 +1856,11 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>7046</v>
+        <v>6534</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GambioVesting</t>
+          <t>XTVToken</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -1869,11 +1869,11 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>7046</v>
+        <v>6578</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CappedCrowdsale</t>
+          <t>CryptualProjectToken</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -1882,11 +1882,11 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>7046</v>
+        <v>6586</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TokenVesting</t>
+          <t>TokenTimelockController</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -1895,11 +1895,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>7046</v>
+        <v>6592</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>GambioCrowdsale</t>
+          <t>SparksterToken</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -1908,11 +1908,11 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>7086</v>
+        <v>6596</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TokenTimelockController</t>
+          <t>FreezableToken</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -1921,11 +1921,11 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>7134</v>
+        <v>6604</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FENIX</t>
+          <t>TimedCrowdsale</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -1934,11 +1934,11 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>7330</v>
+        <v>6604</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>KcashVesting</t>
+          <t>VreoTokenSale</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -1947,11 +1947,11 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>7419</v>
+        <v>6663</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SponsoredItemGooRaffle</t>
+          <t>TokenTimelockController</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -1960,11 +1960,11 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>7440</v>
+        <v>6743</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FreezableToken</t>
+          <t>CrowdsaleBase</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -1973,11 +1973,11 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>7441</v>
+        <v>6747</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>BonusableCrowdsale</t>
+          <t>CrowdsaleBase</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -1986,11 +1986,11 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>7441</v>
+        <v>6753</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CappedCrowdsale</t>
+          <t>CrowdsaleBase</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -1999,11 +1999,11 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>7441</v>
+        <v>6798</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FreezableToken</t>
+          <t>CrowdsaleBase</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2012,11 +2012,11 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>7441</v>
+        <v>6806</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TemplateCrowdsale</t>
+          <t>CrowdsaleBase</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2025,11 +2025,11 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>7441</v>
+        <v>6811</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MainCrowdsale</t>
+          <t>XTVToken</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2038,11 +2038,11 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>7441</v>
+        <v>6822</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Crowdsale</t>
+          <t>Lockable</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2051,11 +2051,11 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>7464</v>
+        <v>6822</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TimedCrowdsale</t>
+          <t>BugXToken</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2064,11 +2064,11 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>7464</v>
+        <v>6833</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GrapevineCrowdsale</t>
+          <t>MOEToken</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -2077,11 +2077,11 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>7466</v>
+        <v>6844</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TokenTimelockController</t>
+          <t>XTVToken</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -2090,11 +2090,11 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>7511</v>
+        <v>6846</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>R1Exchange</t>
+          <t>FoMo3Dlong</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -2103,11 +2103,11 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>7512</v>
+        <v>6915</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CrowdsaleExt</t>
+          <t>TimedCrowdsale</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -2116,11 +2116,11 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>7519</v>
+        <v>6915</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>BSPMintable</t>
+          <t>GrapevineCrowdsale</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -2129,11 +2129,11 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>7521</v>
+        <v>6929</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>BSPVesting</t>
+          <t>PitEur</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -2142,11 +2142,11 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>7593</v>
+        <v>7012</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>EtheremonEnergy</t>
+          <t>TokenVesting</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -2155,11 +2155,11 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>7627</v>
+        <v>7012</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NanoLoanEngine</t>
+          <t>VariableRateTokenVesting</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -2168,11 +2168,11 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>7696</v>
+        <v>7044</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Redenom</t>
+          <t>BaseICO</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -2181,11 +2181,11 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>7724</v>
+        <v>7044</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CTCLock</t>
+          <t>IonChainICO</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -2194,11 +2194,11 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>7736</v>
+        <v>7046</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CTCVesting</t>
+          <t>Crowdsale</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -2207,11 +2207,11 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>7753</v>
+        <v>7046</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>BVesting</t>
+          <t>GambioVesting</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -2220,11 +2220,11 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>7775</v>
+        <v>7046</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TokenVesting</t>
+          <t>GambioCrowdsale</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -2233,11 +2233,11 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>7803</v>
+        <v>7046</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TimedCrowdsale</t>
+          <t>TokenVesting</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -2246,11 +2246,11 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>7803</v>
+        <v>7046</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CareerChainPrivateSale</t>
+          <t>CappedCrowdsale</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -2259,11 +2259,11 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>7826</v>
+        <v>7086</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CapitalTechCrowdsale</t>
+          <t>TokenTimelockController</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -2272,11 +2272,11 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>7877</v>
+        <v>7134</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ERC20Like</t>
+          <t>FENIX</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -2285,11 +2285,11 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>7919</v>
+        <v>7214</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>YetAnotherUselessToken</t>
+          <t>CanonicalPriceFeed</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -2298,11 +2298,11 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>8025</v>
+        <v>7214</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ESSENTIA_PE</t>
+          <t>DSGroup</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -2311,11 +2311,11 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>8099</v>
+        <v>7214</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>tipbot</t>
+          <t>Fund</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -2324,11 +2324,11 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>8139</v>
+        <v>7214</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>VEToken</t>
+          <t>SimplePriceFeed</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -2337,11 +2337,11 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>8234</v>
+        <v>7214</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CrowdsaleExt</t>
+          <t>OperatorStaking</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -2350,11 +2350,11 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>8254</v>
+        <v>7330</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>StakeDice</t>
+          <t>KcashVesting</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -2363,11 +2363,11 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>8293</v>
+        <v>7334</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Redenom</t>
+          <t>EDUCrowdsale</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -2376,11 +2376,11 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>8305</v>
+        <v>7334</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>GigToken</t>
+          <t>TimedCrowdsale</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -2389,11 +2389,11 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>8305</v>
+        <v>7419</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CrowdSale</t>
+          <t>SponsoredItemGooRaffle</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -2402,11 +2402,11 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>8306</v>
+        <v>7440</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CrowdSale</t>
+          <t>FreezableToken</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -2415,11 +2415,11 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>8311</v>
+        <v>7441</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Agreement</t>
+          <t>Crowdsale</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -2428,11 +2428,11 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>8314</v>
+        <v>7441</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Vault</t>
+          <t>TemplateCrowdsale</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -2441,11 +2441,11 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>8320</v>
+        <v>7441</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ESSENTIA_PE</t>
+          <t>BonusableCrowdsale</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -2454,11 +2454,11 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>8342</v>
+        <v>7441</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CHArena</t>
+          <t>FreezableToken</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -2467,11 +2467,11 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>8342</v>
+        <v>7441</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CHGameBase</t>
+          <t>MainCrowdsale</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -2480,11 +2480,11 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>8342</v>
+        <v>7441</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CHAltar</t>
+          <t>CappedCrowdsale</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -2493,11 +2493,11 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>8436</v>
+        <v>7464</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ESSENTIA_PE</t>
+          <t>GrapevineCrowdsale</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -2506,11 +2506,11 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8470</v>
+        <v>7464</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>StakeDice</t>
+          <t>TimedCrowdsale</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -2519,11 +2519,11 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>8497</v>
+        <v>7466</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CryptoQuantumTradingFund</t>
+          <t>TokenTimelockController</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -2532,11 +2532,11 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>8502</v>
+        <v>7511</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Lottery</t>
+          <t>R1Exchange</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -2545,11 +2545,11 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>8505</v>
+        <v>7512</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TokenVesting</t>
+          <t>CrowdsaleExt</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -2558,11 +2558,11 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>8555</v>
+        <v>7515</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>FreezableToken</t>
+          <t>CrowdsaleExt</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -2571,11 +2571,11 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>8556</v>
+        <v>7515</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TemplateCrowdsale</t>
+          <t>MintedTokenCappedCrowdsaleExt</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -2584,11 +2584,11 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>8556</v>
+        <v>7519</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>BonusableCrowdsale</t>
+          <t>BSPMintable</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -2597,11 +2597,11 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>8556</v>
+        <v>7521</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>FreezableToken</t>
+          <t>BSPVesting</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -2610,11 +2610,11 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>8556</v>
+        <v>7570</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CappedCrowdsale</t>
+          <t>GStarCrowdsale</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -2623,11 +2623,11 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>8556</v>
+        <v>7593</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Crowdsale</t>
+          <t>EtheremonEnergy</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -2636,11 +2636,11 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>8556</v>
+        <v>7627</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MainCrowdsale</t>
+          <t>NanoLoanEngine</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -2649,11 +2649,11 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>8596</v>
+        <v>7696</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CrowdsaleExt</t>
+          <t>Redenom</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -2662,11 +2662,11 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>8606</v>
+        <v>7724</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>YunMint</t>
+          <t>CTCLock</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -2675,11 +2675,11 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>8614</v>
+        <v>7736</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CoinSparrow</t>
+          <t>CTCVesting</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -2688,11 +2688,11 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>8750</v>
+        <v>7753</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>LemurTokenSale</t>
+          <t>BVesting</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -2701,11 +2701,11 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>8766</v>
+        <v>7775</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ESSENTIA_PE</t>
+          <t>TokenVesting</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -2714,11 +2714,11 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>8826</v>
+        <v>7803</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TokenOffering</t>
+          <t>CareerChainPrivateSale</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -2727,11 +2727,11 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>8851</v>
+        <v>7803</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>mameCoin</t>
+          <t>TimedCrowdsale</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -2740,11 +2740,11 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>8926</v>
+        <v>7826</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DreamTeamToken</t>
+          <t>CapitalTechCrowdsale</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -2753,11 +2753,11 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>9221</v>
+        <v>7877</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>EtherBet</t>
+          <t>ERC20Like</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -2766,11 +2766,11 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>9224</v>
+        <v>7919</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TokenTimelock</t>
+          <t>YetAnotherUselessToken</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -2779,11 +2779,11 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>9230</v>
+        <v>8025</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tokenlock</t>
+          <t>ESSENTIA_PE</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -2792,11 +2792,11 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>9242</v>
+        <v>8099</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>EthTeamContract</t>
+          <t>tipbot</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -2805,11 +2805,11 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>9300</v>
+        <v>8139</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TimedCrowdsale</t>
+          <t>VEToken</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -2818,11 +2818,11 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>9300</v>
+        <v>8233</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>EoptCrowdsale</t>
+          <t>MintedTokenCappedCrowdsaleExt</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -2831,7 +2831,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>9309</v>
+        <v>8233</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -2844,11 +2844,11 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>9329</v>
+        <v>8234</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>FreezableToken</t>
+          <t>CrowdsaleExt</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -2857,11 +2857,11 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>9334</v>
+        <v>8254</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CrowdsaleExt</t>
+          <t>StakeDice</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -2870,11 +2870,11 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>9368</v>
+        <v>8293</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ZeroGravityToken</t>
+          <t>Redenom</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -2883,11 +2883,11 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>9428</v>
+        <v>8305</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>DiceRoll</t>
+          <t>GigToken</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -2896,11 +2896,11 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>9445</v>
+        <v>8305</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>LockToken</t>
+          <t>CrowdSale</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -2909,11 +2909,11 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>9474</v>
+        <v>8306</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>WaltonTokenLocker</t>
+          <t>CrowdSale</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -2922,11 +2922,11 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>9476</v>
+        <v>8311</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>WaltonTokenLocker</t>
+          <t>Agreement</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -2935,11 +2935,11 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>9479</v>
+        <v>8314</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>GeneNuggetsToken</t>
+          <t>Vault</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -2948,11 +2948,11 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>9483</v>
+        <v>8320</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DiceRoll</t>
+          <t>ESSENTIA_PE</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -2961,11 +2961,11 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>9499</v>
+        <v>8342</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>WaltonTokenLocker</t>
+          <t>CHGameBase</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -2974,11 +2974,11 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>9500</v>
+        <v>8342</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>WaltonTokenLocker</t>
+          <t>CHArena</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -2987,11 +2987,11 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>9502</v>
+        <v>8342</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FreezableToken</t>
+          <t>CHAltar</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -3000,11 +3000,11 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>9505</v>
+        <v>8436</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>WaltonTokenLocker</t>
+          <t>ESSENTIA_PE</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -3013,11 +3013,11 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>9521</v>
+        <v>8470</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>WaltonTokenLocker</t>
+          <t>StakeDice</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -3026,11 +3026,11 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>9531</v>
+        <v>8497</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>CryptualProjectToken</t>
+          <t>CryptoQuantumTradingFund</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -3039,11 +3039,11 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>9558</v>
+        <v>8502</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Crowdsale</t>
+          <t>Lottery</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -3052,11 +3052,11 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>9560</v>
+        <v>8505</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>dappVolumeAd</t>
+          <t>TokenVesting</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -3065,11 +3065,11 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>9654</v>
+        <v>8555</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SimpleBet</t>
+          <t>FreezableToken</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -3078,11 +3078,11 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>9759</v>
+        <v>8556</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FreezableToken</t>
+          <t>CappedCrowdsale</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -3091,11 +3091,11 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>9779</v>
+        <v>8556</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>CrowdsaleExt</t>
+          <t>FreezableToken</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -3104,11 +3104,11 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>9802</v>
+        <v>8556</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>CrowdsaleExt</t>
+          <t>Crowdsale</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -3117,11 +3117,11 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>9803</v>
+        <v>8556</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>CrowdsaleExt</t>
+          <t>BonusableCrowdsale</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -3130,11 +3130,11 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>9820</v>
+        <v>8556</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>CrowdsaleRC</t>
+          <t>MainCrowdsale</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -3143,11 +3143,11 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>9830</v>
+        <v>8556</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>SpaceWar</t>
+          <t>TemplateCrowdsale</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -3156,11 +3156,11 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>9843</v>
+        <v>8596</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Releaseable</t>
+          <t>CrowdsaleExt</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -3169,11 +3169,11 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>9843</v>
+        <v>8598</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Frozenable</t>
+          <t>CrowdsaleExt</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -3182,11 +3182,11 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>9858</v>
+        <v>8598</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>CrowdsaleExt</t>
+          <t>MintedTokenCappedCrowdsaleExt</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -3195,11 +3195,11 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>9890</v>
+        <v>8606</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>CrowdsaleExt</t>
+          <t>YunMint</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -3208,11 +3208,11 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>9918</v>
+        <v>8612</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>GENEOSSale</t>
+          <t>TokenVesting</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -3221,11 +3221,11 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>9978</v>
+        <v>8612</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>EthTeamContract</t>
+          <t>VariableRateTokenVesting</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -3234,11 +3234,11 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>9987</v>
+        <v>8614</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DQCoin</t>
+          <t>CoinSparrow</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -3247,11 +3247,11 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>9994</v>
+        <v>8615</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>BaseGameLogic</t>
+          <t>VariableRateTokenVesting</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -3260,11 +3260,11 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>9998</v>
+        <v>8615</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>EthTeamContract</t>
+          <t>TokenVesting</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -3273,11 +3273,11 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>10022</v>
+        <v>8636</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>CrowdsaleExt</t>
+          <t>VariableRateTokenVesting</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -3286,11 +3286,11 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>10023</v>
+        <v>8636</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>CrowdsaleExt</t>
+          <t>TokenVesting</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -3299,11 +3299,11 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>10146</v>
+        <v>8647</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>KOIOSTokenPreSale</t>
+          <t>StreamityContract</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -3312,11 +3312,11 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>10146</v>
+        <v>8647</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>KOIOSTokenSale</t>
+          <t>StreamityCrowdsale</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -3325,11 +3325,11 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>10159</v>
+        <v>8647</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>XPAAssets</t>
+          <t>StreamityEscrow</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -3338,11 +3338,11 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>10163</v>
+        <v>8750</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NokuFlatPlan</t>
+          <t>LemurTokenSale</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -3351,11 +3351,11 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>10186</v>
+        <v>8766</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>FreezableToken</t>
+          <t>ESSENTIA_PE</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -3364,11 +3364,11 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>10189</v>
+        <v>8826</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TokenVesting</t>
+          <t>TokenOffering</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -3377,11 +3377,11 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>10189</v>
+        <v>8851</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TokenTimelock</t>
+          <t>mameCoin</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -3390,11 +3390,11 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>10233</v>
+        <v>8926</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>EthTeamContract</t>
+          <t>DreamTeamToken</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -3403,11 +3403,11 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>10250</v>
+        <v>8939</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>CrowdsaleExt</t>
+          <t>StreamityContract</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -3416,11 +3416,11 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>10295</v>
+        <v>8939</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ERC20Like</t>
+          <t>StreamityCrowdsale</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -3429,11 +3429,11 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>10296</v>
+        <v>8939</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ERC20Like</t>
+          <t>StreamityEscrow</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -3442,11 +3442,11 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>10297</v>
+        <v>9208</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>FsTKColdWallet</t>
+          <t>Crowdsale</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -3455,11 +3455,11 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>10298</v>
+        <v>9210</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>FsTKAllocation</t>
+          <t>Crowdsale</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -3468,11 +3468,11 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>10342</v>
+        <v>9221</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>DAVToken</t>
+          <t>EtherBet</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -3481,11 +3481,11 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>10369</v>
+        <v>9224</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MuskTokenVault</t>
+          <t>TokenTimelock</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -3494,11 +3494,11 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>10431</v>
+        <v>9230</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>EthTeamContract</t>
+          <t>Tokenlock</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -3507,11 +3507,11 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>10547</v>
+        <v>9242</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ATTRToken</t>
+          <t>EthTeamContract</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -3520,11 +3520,11 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>10551</v>
+        <v>9300</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>CrowdsaleExt</t>
+          <t>EoptCrowdsale</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -3533,11 +3533,11 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>10559</v>
+        <v>9300</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Crowdsale</t>
+          <t>TimedCrowdsale</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -3546,11 +3546,11 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>10559</v>
+        <v>9309</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>CappedCrowdsale</t>
+          <t>CrowdsaleExt</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -3559,11 +3559,11 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>10559</v>
+        <v>9310</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>TokenTimelock</t>
+          <t>MintedTokenCappedCrowdsaleExt</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -3572,11 +3572,11 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>10559</v>
+        <v>9310</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>HoldCrowdsale</t>
+          <t>CrowdsaleExt</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -3585,11 +3585,11 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>10560</v>
+        <v>9322</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>HoldCrowdsale</t>
+          <t>Cryphos</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -3598,11 +3598,11 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>10560</v>
+        <v>9329</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Crowdsale</t>
+          <t>FreezableToken</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -3611,11 +3611,11 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>10560</v>
+        <v>9333</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TokenTimelock</t>
+          <t>CrowdsaleExt</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -3624,11 +3624,11 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>10560</v>
+        <v>9333</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>CappedCrowdsale</t>
+          <t>MintedTokenCappedCrowdsaleExt</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -3637,11 +3637,11 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>10661</v>
+        <v>9334</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>JungleScratch</t>
+          <t>CrowdsaleExt</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -3650,11 +3650,11 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>10736</v>
+        <v>9358</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>LescovexERC20</t>
+          <t>SecurityController</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -3663,11 +3663,11 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>10755</v>
+        <v>9358</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Crowdsale</t>
+          <t>SecurityLedger</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -3676,11 +3676,11 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>10755</v>
+        <v>9359</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TemplateCrowdsale</t>
+          <t>SecurityController</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -3689,11 +3689,11 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>10755</v>
+        <v>9359</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>CappedCrowdsale</t>
+          <t>SecurityLedger</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -3702,11 +3702,11 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>10755</v>
+        <v>9360</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>MainCrowdsale</t>
+          <t>SecurityLedger</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -3715,11 +3715,11 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>10755</v>
+        <v>9360</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>FreezableToken</t>
+          <t>SecurityController</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -3728,11 +3728,11 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>10755</v>
+        <v>9368</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>BonusableCrowdsale</t>
+          <t>ZeroGravityToken</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -3741,11 +3741,11 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>10758</v>
+        <v>9377</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>FreezableToken</t>
+          <t>PGOMonthlyInternalVault</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -3754,11 +3754,11 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>10763</v>
+        <v>9378</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Releaseable</t>
+          <t>PGOMonthlyInternalVault</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -3767,11 +3767,11 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>10763</v>
+        <v>9378</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Frozenable</t>
+          <t>PGOMonthlyPresaleVault</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -3780,11 +3780,11 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>10798</v>
+        <v>9379</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TokenTimelock</t>
+          <t>GotCrowdSale</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -3793,11 +3793,11 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>10807</v>
+        <v>9379</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>CrowdsaleExt</t>
+          <t>PGOMonthlyPresaleVault</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -3806,14 +3806,1483 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
+        <v>9379</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>PGOVault</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>9379</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>PGOMonthlyInternalVault</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>9428</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>DiceRoll</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>9445</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>LockToken</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>9474</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>WaltonTokenLocker</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>9476</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>WaltonTokenLocker</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>9479</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>GeneNuggetsToken</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>9483</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>DiceRoll</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>9499</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>WaltonTokenLocker</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>9500</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>WaltonTokenLocker</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>9502</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>FreezableToken</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>9505</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>WaltonTokenLocker</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>9521</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>WaltonTokenLocker</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>9531</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>CryptualProjectToken</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>9558</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Crowdsale</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>9560</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>dappVolumeAd</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>9654</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>SimpleBet</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>9750</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Betting</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>9759</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>FreezableToken</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>9779</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>9780</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>MintedTokenCappedCrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>9780</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>9802</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>9803</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>9805</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>MintedTokenCappedCrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>9805</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>9806</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>MintedTokenCappedCrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>9806</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>9820</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>CrowdsaleRC</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>9830</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>SpaceWar</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>9843</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Releaseable</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>9843</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Frozenable</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>9850</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Registry</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>9850</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Parameterizer</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>9850</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>PLCRVoting</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>9851</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Parameterizer</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>9851</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>PLCRVoting</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>9858</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>9859</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>9859</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>MintedTokenCappedCrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>9889</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>SecurityLedger</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>9889</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>SecurityController</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>9890</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>9891</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>SecurityLedger</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>9891</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>SecurityController</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>9892</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>9892</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>MintedTokenCappedCrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>9918</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>GENEOSSale</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>9978</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>EthTeamContract</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>9987</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>DQCoin</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>9994</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>BaseGameLogic</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>9998</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>EthTeamContract</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>10022</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>10023</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>10024</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>10024</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>MintedTokenCappedCrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>10025</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>MintedTokenCappedCrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>10025</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>10129</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>CrowdsaleBase</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>10129</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>KYCPresale</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>10131</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>ICO</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>10146</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>KOIOSTokenPreSale</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>10146</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>KOIOSTokenSale</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>10159</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>XPAAssets</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>10163</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>NokuFlatPlan</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>10186</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>FreezableToken</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>10189</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>TokenTimelock</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>10189</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>TokenVesting</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>10233</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>EthTeamContract</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>10250</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>10253</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>MintedTokenCappedCrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>10253</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>10295</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>ERC20Like</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>10296</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>ERC20Like</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>10297</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>FsTKColdWallet</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>10298</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>FsTKAllocation</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>10342</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>DAVToken</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>10369</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>MuskTokenVault</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>10431</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>EthTeamContract</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>10547</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>ATTRToken</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>10551</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>10552</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>10552</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>MintedTokenCappedCrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>10559</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>HoldCrowdsale</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>10559</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>TokenTimelock</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>10559</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Crowdsale</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>10559</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>CappedCrowdsale</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>10560</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>HoldCrowdsale</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>10560</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>TokenTimelock</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>10560</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>CappedCrowdsale</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>10560</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Crowdsale</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>10661</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>JungleScratch</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>10736</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>LescovexERC20</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>10755</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>TemplateCrowdsale</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>10755</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>FreezableToken</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>10755</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>CappedCrowdsale</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>10755</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Crowdsale</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>10755</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>MainCrowdsale</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>10755</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>BonusableCrowdsale</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>10758</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>FreezableToken</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>10763</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Frozenable</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>10763</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Releaseable</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>10798</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>TokenTimelock</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>10803</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>AnythingAppTokenPreSale</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>10806</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>AnythingAppTokenPreSale</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>10807</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>10808</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>MintedTokenCappedCrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>10808</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>CrowdsaleExt</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>10826</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>AnythingAppTokenPreSale</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>10831</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>AnythingAppTokenPreSale</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>10833</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>AnythingAppTokenPreSale</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>10855</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>TokenLock</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
         <v>10915</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B372" t="inlineStr">
         <is>
           <t>DiceRoll</t>
         </is>
       </c>
-      <c r="C260" t="n">
+      <c r="C372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>10931</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>CrowdsaleBase</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
         <v>1</v>
       </c>
     </row>
